--- a/trunk/3. Requirement/SubmitTeamWork/8 - Deadline 241213/QA.xls.xlsx
+++ b/trunk/3. Requirement/SubmitTeamWork/8 - Deadline 241213/QA.xls.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission system\3. Requirement\SubmitTeamWork\8 - Deadline 241213\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -220,12 +221,45 @@
   <si>
     <t>tất cả hoạt động trong hệ thống phải được lưu vết lại</t>
   </si>
+  <si>
+    <t xml:space="preserve">Quality Attribute: </t>
+  </si>
+  <si>
+    <t>Characterization ID</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Describe stakeholder role proposing the description</t>
+  </si>
+  <si>
+    <t>Stimulus</t>
+  </si>
+  <si>
+    <t>Source(s) of the stimulus</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Artifact stimulated</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Response measure(s)</t>
+  </si>
+  <si>
+    <t>Associated risks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +308,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -336,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -373,6 +414,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,4 +924,97 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="80.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="51" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>